--- a/Feature-Analysis/Resize Feature/s_11_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_11_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.8435763889</v>
+        <v>738157.8435763889</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.8440393518</v>
+        <v>738157.8440393518</v>
       </c>
       <c r="C3" s="0">
         <v>39.99999426305294</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.84450231481</v>
+        <v>738157.84450231481</v>
       </c>
       <c r="C4" s="0">
         <v>79.999998584389687</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.84493055556</v>
+        <v>738157.84493055556</v>
       </c>
       <c r="C5" s="0">
         <v>116.99999906122684</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.84521990735</v>
+        <v>738157.84521990735</v>
       </c>
       <c r="C6" s="0">
         <v>141.99999421834946</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.84549768514</v>
+        <v>738157.84549768514</v>
       </c>
       <c r="C7" s="0">
         <v>165.99999479949474</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.84596064815</v>
+        <v>738157.84596064815</v>
       </c>
       <c r="C8" s="0">
         <v>205.99999912083149</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.84626157407</v>
+        <v>738157.84626157407</v>
       </c>
       <c r="C9" s="0">
         <v>231.99999891221523</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.84666666668</v>
+        <v>738157.84666666668</v>
       </c>
       <c r="C10" s="0">
         <v>267.00000017881393</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.84702546301</v>
+        <v>738157.84702546301</v>
       </c>
       <c r="C11" s="0">
         <v>298.00000302493572</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.84751157404</v>
+        <v>738157.84751157404</v>
       </c>
       <c r="C12" s="0">
         <v>339.99999649822712</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.84785879625</v>
+        <v>738157.84785879625</v>
       </c>
       <c r="C13" s="0">
         <v>369.99999471008778</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.84827546298</v>
+        <v>738157.84827546298</v>
       </c>
       <c r="C14" s="0">
         <v>406.00000061094761</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.84855324076</v>
+        <v>738157.84855324076</v>
       </c>
       <c r="C15" s="0">
         <v>430.0000011920929</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.84899305552</v>
+        <v>738157.84899305552</v>
       </c>
       <c r="C16" s="0">
         <v>467.99999624490738</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.84942129627</v>
+        <v>738157.84942129627</v>
       </c>
       <c r="C17" s="0">
         <v>504.99999672174454</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.84971064818</v>
+        <v>738157.84971064818</v>
       </c>
       <c r="C18" s="0">
         <v>530.00000193715096</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.85017361108</v>
+        <v>738157.85017361108</v>
       </c>
       <c r="C19" s="0">
         <v>569.9999962002039</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.85074074077</v>
+        <v>738157.85074074077</v>
       </c>
       <c r="C20" s="0">
         <v>619.0000019967556</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.85163194442</v>
+        <v>738157.85163194442</v>
       </c>
       <c r="C21" s="0">
         <v>695.9999967366457</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.85163194442</v>
+        <v>738157.85163194442</v>
       </c>
       <c r="C22" s="0">
         <v>695.9999967366457</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.85163194442</v>
+        <v>738157.85163194442</v>
       </c>
       <c r="C23" s="0">
         <v>695.9999967366457</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.85203703702</v>
+        <v>738157.85203703702</v>
       </c>
       <c r="C24" s="0">
         <v>730.9999980032444</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.8524768519</v>
+        <v>738157.8524768519</v>
       </c>
       <c r="C25" s="0">
         <v>769.00000311434269</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.85278935183</v>
+        <v>738157.85278935183</v>
       </c>
       <c r="C26" s="0">
         <v>795.99999748170376</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.85321759258</v>
+        <v>738157.85321759258</v>
       </c>
       <c r="C27" s="0">
         <v>832.99999795854092</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.85350694449</v>
+        <v>738157.85350694449</v>
       </c>
       <c r="C28" s="0">
         <v>858.00000317394733</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.85392361111</v>
+        <v>738157.85392361111</v>
       </c>
       <c r="C29" s="0">
         <v>893.99999901652336</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.85435185186</v>
+        <v>738157.85435185186</v>
       </c>
       <c r="C30" s="0">
         <v>930.99999949336052</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.8547800926</v>
+        <v>738157.8547800926</v>
       </c>
       <c r="C31" s="0">
         <v>967.99999997019768</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.8550694444</v>
+        <v>738157.8550694444</v>
       </c>
       <c r="C32" s="0">
         <v>992.99999512732029</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.85548611113</v>
+        <v>738157.85548611113</v>
       </c>
       <c r="C33" s="0">
         <v>1029.0000010281801</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.85658564814</v>
+        <v>738157.85658564814</v>
       </c>
       <c r="C34" s="0">
         <v>1123.9999987185001</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.85658564814</v>
+        <v>738157.85658564814</v>
       </c>
       <c r="C35" s="0">
         <v>1123.9999987185001</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.85658564814</v>
+        <v>738157.85658564814</v>
       </c>
       <c r="C36" s="0">
         <v>1123.9999987185001</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.85699074075</v>
+        <v>738157.85699074075</v>
       </c>
       <c r="C37" s="0">
         <v>1158.9999999850988</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.85743055551</v>
+        <v>738157.85743055551</v>
       </c>
       <c r="C38" s="0">
         <v>1196.9999950379133</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.85784722224</v>
+        <v>738157.85784722224</v>
       </c>
       <c r="C39" s="0">
         <v>1233.0000009387732</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.85812500003</v>
+        <v>738157.85812500003</v>
       </c>
       <c r="C40" s="0">
         <v>1257.0000015199184</v>
